--- a/src/assets/files/14.Responsables.xlsx
+++ b/src/assets/files/14.Responsables.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comunidadunammx-my.sharepoint.com/personal/octavioanselmo_comunidad_unam_mx/Documents/PM Soluciones/IMSS/Tortoise/03-EJECUCION/04-SDIP/04-CÉLULA_JCJT/02_DSDIOH/OIAZ/Entregables/22/05_Mayo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{B8BCE44B-ACE3-4108-B74B-7C72DB2110E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E2EA7E-5056-42C7-A4C1-8AF187FC4815}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD05EF2-F882-422B-8E4A-0A3FC8E5FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="C_personal" sheetId="1" r:id="rId1"/>
     <sheet name="AA_TURNOS" sheetId="2" r:id="rId2"/>
     <sheet name="D_responsables" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>PRIMER APELLIDO</t>
   </si>
@@ -64,32 +66,6 @@
     <t>Contraseña</t>
   </si>
   <si>
-    <t>Not null</t>
-  </si>
-  <si>
-    <t>Not Null</t>
-  </si>
-  <si>
-    <t>35 caracteres (texto)</t>
-  </si>
-  <si>
-    <t>9 caracteres (númerico)</t>
-  </si>
-  <si>
-    <t>Catálogo/Relación
-Z_roles</t>
-  </si>
-  <si>
-    <t>Catálogo/Relación
-ZA_puestos</t>
-  </si>
-  <si>
-    <t>105 caracteres (texto)</t>
-  </si>
-  <si>
-    <t>9 caracteres (varchar)</t>
-  </si>
-  <si>
     <t>Clave turno</t>
   </si>
   <si>
@@ -99,42 +75,12 @@
     <t>4_30_6</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>numérico</t>
-  </si>
-  <si>
-    <t>Alfabético</t>
-  </si>
-  <si>
-    <t>No especificado</t>
-  </si>
-  <si>
     <t>Matutino</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Vespertino</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Nocturno</t>
-  </si>
-  <si>
-    <t>Jorndada Acumulada</t>
-  </si>
-  <si>
-    <t>Horario mixto</t>
-  </si>
-  <si>
     <t>MATRICULA</t>
   </si>
   <si>
@@ -144,25 +90,31 @@
     <t>TURNO</t>
   </si>
   <si>
-    <t>Se descarga la plnatilla con la información</t>
-  </si>
-  <si>
-    <t>Catálogo/Relación
-B_4_Ubicaciones</t>
-  </si>
-  <si>
-    <t>Catálogo/Relación
-AA_TURNOS</t>
-  </si>
-  <si>
     <t>Trab_Social_05</t>
   </si>
   <si>
-    <t>Primaria</t>
-  </si>
-  <si>
-    <t>Se considera que esta tabla es una tabla de relación de mucho a muchos entre ubicaciones y personal, por lo cual se solicita el apoyo para su descompisición en dos tablas
-de relación 1 a muchos de acuerdo al nivel de normalización que se este este trabando en la base de datos</t>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t>Jefe_trabajo_social</t>
+  </si>
+  <si>
+    <t>Carlos Salas Perez</t>
+  </si>
+  <si>
+    <t>cperez</t>
+  </si>
+  <si>
+    <t>Turno</t>
   </si>
 </sst>
 </file>
@@ -204,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -216,9 +168,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +485,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,69 +522,52 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>987654321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>987654321</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -998,7 +930,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,94 +940,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.35">
@@ -1121,10 +983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8511366-658D-4A34-8384-75E1F6FA7EAE}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,679 +997,644 @@
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>987654321</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B3,C_personal!A5:G103,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B4,C_personal!A6:G104,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B5,C_personal!A5:G103,4),"")</f>
-        <v/>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B5,C_personal!A7:G105,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,C_personal!A6:G104,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B6,C_personal!A8:G106,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,C_personal!A7:G105,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B7,C_personal!A9:G107,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,C_personal!A8:G106,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B8,C_personal!A10:G108,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,C_personal!A9:G107,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B9,C_personal!A11:G109,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,C_personal!A10:G108,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B10,C_personal!A12:G110,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,C_personal!A11:G109,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B11,C_personal!A13:G111,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,C_personal!A12:G110,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B12,C_personal!A14:G112,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,C_personal!A13:G111,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B13,C_personal!A15:G113,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,C_personal!A14:G112,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B14,C_personal!A16:G114,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,C_personal!A15:G113,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <f>_xlfn.IFNA(VLOOKUP(B15,C_personal!A17:G115,4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,C_personal!A16:G114,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,C_personal!A18:G116,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,C_personal!A17:G115,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,C_personal!A19:G117,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,C_personal!A18:G116,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,C_personal!A20:G118,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,C_personal!A19:G117,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,C_personal!A21:G119,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,C_personal!A20:G118,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,C_personal!A22:G120,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,C_personal!A21:G119,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,C_personal!A23:G121,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,C_personal!A22:G120,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,C_personal!A24:G122,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,C_personal!A23:G121,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,C_personal!A25:G123,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,C_personal!A24:G122,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,C_personal!A26:G124,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,C_personal!A25:G123,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,C_personal!A27:G125,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,C_personal!A26:G124,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,C_personal!A28:G126,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,C_personal!A27:G125,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,C_personal!A29:G127,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,C_personal!A28:G126,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,C_personal!A30:G128,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,C_personal!A29:G127,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,C_personal!A31:G129,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,C_personal!A30:G128,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,C_personal!A32:G130,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,C_personal!A31:G129,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,C_personal!A33:G131,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,C_personal!A32:G130,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,C_personal!A34:G132,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,C_personal!A33:G131,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,C_personal!A35:G133,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,C_personal!A34:G132,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,C_personal!A36:G134,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,C_personal!A35:G133,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,C_personal!A37:G135,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,C_personal!A36:G134,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,C_personal!A38:G136,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,C_personal!A37:G135,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,C_personal!A39:G137,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,C_personal!A38:G136,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,C_personal!A40:G138,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,C_personal!A39:G137,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,C_personal!A41:G139,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,C_personal!A40:G138,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,C_personal!A42:G140,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,C_personal!A41:G139,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,C_personal!A43:G141,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,C_personal!A42:G140,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,C_personal!A44:G142,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,C_personal!A43:G141,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,C_personal!A45:G143,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,C_personal!A44:G142,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,C_personal!A46:G144,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,C_personal!A45:G143,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,C_personal!A47:G145,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,C_personal!A46:G144,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,C_personal!A48:G146,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,C_personal!A47:G145,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,C_personal!A49:G147,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,C_personal!A48:G146,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,C_personal!A50:G148,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,C_personal!A49:G147,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,C_personal!A51:G149,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,C_personal!A50:G148,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,C_personal!A52:G150,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,C_personal!A51:G149,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,C_personal!A53:G151,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,C_personal!A52:G150,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,C_personal!A54:G152,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,C_personal!A53:G151,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,C_personal!A55:G153,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,C_personal!A54:G152,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,C_personal!A56:G154,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,C_personal!A55:G153,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,C_personal!A57:G155,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,C_personal!A56:G154,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,C_personal!A58:G156,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,C_personal!A57:G155,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,C_personal!A59:G157,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,C_personal!A58:G156,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,C_personal!A60:G158,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,C_personal!A59:G157,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,C_personal!A61:G159,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,C_personal!A60:G158,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,C_personal!A62:G160,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,C_personal!A61:G159,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,C_personal!A63:G161,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,C_personal!A62:G160,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,C_personal!A64:G162,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,C_personal!A63:G161,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,C_personal!A65:G163,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,C_personal!A64:G162,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,C_personal!A66:G164,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,C_personal!A65:G163,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,C_personal!A67:G165,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,C_personal!A66:G164,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,C_personal!A68:G166,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,C_personal!A67:G165,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,C_personal!A69:G167,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,C_personal!A68:G166,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,C_personal!A70:G168,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,C_personal!A69:G167,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,C_personal!A71:G169,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,C_personal!A70:G168,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,C_personal!A72:G170,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,C_personal!A71:G169,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,C_personal!A73:G171,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,C_personal!A72:G170,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,C_personal!A74:G172,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,C_personal!A73:G171,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B73,C_personal!A75:G173,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,C_personal!A74:G172,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,C_personal!A76:G174,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,C_personal!A75:G173,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,C_personal!A77:G175,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,C_personal!A76:G174,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B76,C_personal!A78:G176,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,C_personal!A77:G175,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,C_personal!A79:G177,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,C_personal!A78:G176,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,C_personal!A80:G178,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,C_personal!A79:G177,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,C_personal!A81:G179,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,C_personal!A80:G178,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,C_personal!A82:G180,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,C_personal!A81:G179,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B81,C_personal!A83:G181,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,C_personal!A82:G180,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,C_personal!A84:G182,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,C_personal!A83:G181,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,C_personal!A85:G183,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,C_personal!A84:G182,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,C_personal!A86:G184,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,C_personal!A85:G183,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,C_personal!A87:G185,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,C_personal!A86:G184,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,C_personal!A88:G186,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,C_personal!A87:G185,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,C_personal!A89:G187,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,C_personal!A88:G186,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,C_personal!A90:G188,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,C_personal!A89:G187,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,C_personal!A91:G189,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,C_personal!A90:G188,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,C_personal!A92:G190,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,C_personal!A91:G189,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,C_personal!A93:G191,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,C_personal!A92:G190,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,C_personal!A94:G192,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,C_personal!A93:G191,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,C_personal!A95:G193,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,C_personal!A94:G192,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,C_personal!A96:G194,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,C_personal!A95:G193,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B95,C_personal!A97:G195,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,C_personal!A96:G194,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,C_personal!A98:G196,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,C_personal!A97:G195,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B97,C_personal!A99:G197,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,C_personal!A98:G196,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,C_personal!A100:G198,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,C_personal!A99:G197,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,C_personal!A101:G199,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,C_personal!A100:G198,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B100,C_personal!A102:G200,4),"")</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,C_personal!A101:G199,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B102,C_personal!A102:G200,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B103,C_personal!A103:G201,4),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,C_personal!A103:G201,4),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{824E13BB-2231-4D09-8193-1DF00326812E}">
+          <x14:formula1>
+            <xm:f>C_personal!$G$5:$G$103</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B100</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77554C3C-CCA4-4D67-AA3F-3A047D4BCC4E}">
           <x14:formula1>
             <xm:f>AA_TURNOS!$B$5:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{824E13BB-2231-4D09-8193-1DF00326812E}">
-          <x14:formula1>
-            <xm:f>C_personal!$G$5:$G$103</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:B102</xm:sqref>
+          <xm:sqref>D4:D100 D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1816,6 +1643,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1929,15 +1765,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1945,13 +1772,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C479CB17-957D-44FB-B5DB-D83F812D9445}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C479CB17-957D-44FB-B5DB-D83F812D9445}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA25A5CE-F7DC-4013-ADFC-9FDEC7F55BC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA25A5CE-F7DC-4013-ADFC-9FDEC7F55BC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/files/14.Responsables.xlsx
+++ b/src/assets/files/14.Responsables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgutierrez\Documents\proyectos\angular\demos\trabajo-social-adt\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD05EF2-F882-422B-8E4A-0A3FC8E5FD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867FEF23-DB5C-4DA6-8BB2-118FBEC2F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="C_personal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>PRIMER APELLIDO</t>
   </si>
@@ -90,9 +90,6 @@
     <t>TURNO</t>
   </si>
   <si>
-    <t>Trab_Social_05</t>
-  </si>
-  <si>
     <t>Carlos</t>
   </si>
   <si>
@@ -115,6 +112,15 @@
   </si>
   <si>
     <t>Turno</t>
+  </si>
+  <si>
+    <t>SERVICIO/ESPECIALIDAD</t>
+  </si>
+  <si>
+    <t>Servicios de Enlace</t>
+  </si>
+  <si>
+    <t>Trab_Social_02</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -168,6 +174,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,33 +533,33 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>987654321</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>987654321</v>
@@ -983,10 +993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8511366-658D-4A34-8384-75E1F6FA7EAE}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,7 +1007,7 @@
     <col min="4" max="4" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1010,613 +1020,25 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>987654321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B3,C_personal!A5:G103,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B4,C_personal!A6:G104,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B5,C_personal!A7:G105,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,C_personal!A8:G106,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,C_personal!A9:G107,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,C_personal!A10:G108,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,C_personal!A11:G109,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,C_personal!A12:G110,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,C_personal!A13:G111,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,C_personal!A14:G112,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,C_personal!A15:G113,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,C_personal!A16:G114,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,C_personal!A17:G115,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,C_personal!A18:G116,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,C_personal!A19:G117,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,C_personal!A20:G118,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,C_personal!A21:G119,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,C_personal!A22:G120,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,C_personal!A23:G121,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,C_personal!A24:G122,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,C_personal!A25:G123,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,C_personal!A26:G124,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,C_personal!A27:G125,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,C_personal!A28:G126,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,C_personal!A29:G127,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,C_personal!A30:G128,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,C_personal!A31:G129,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,C_personal!A32:G130,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,C_personal!A33:G131,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,C_personal!A34:G132,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,C_personal!A35:G133,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,C_personal!A36:G134,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,C_personal!A37:G135,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,C_personal!A38:G136,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,C_personal!A39:G137,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,C_personal!A40:G138,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,C_personal!A41:G139,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,C_personal!A42:G140,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,C_personal!A43:G141,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,C_personal!A44:G142,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,C_personal!A45:G143,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,C_personal!A46:G144,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,C_personal!A47:G145,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,C_personal!A48:G146,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,C_personal!A49:G147,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,C_personal!A50:G148,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,C_personal!A51:G149,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,C_personal!A52:G150,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,C_personal!A53:G151,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,C_personal!A54:G152,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,C_personal!A55:G153,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,C_personal!A56:G154,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,C_personal!A57:G155,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,C_personal!A58:G156,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,C_personal!A59:G157,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,C_personal!A60:G158,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,C_personal!A61:G159,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,C_personal!A62:G160,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,C_personal!A63:G161,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,C_personal!A64:G162,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,C_personal!A65:G163,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,C_personal!A66:G164,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,C_personal!A67:G165,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,C_personal!A68:G166,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,C_personal!A69:G167,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,C_personal!A70:G168,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,C_personal!A71:G169,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,C_personal!A72:G170,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,C_personal!A73:G171,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,C_personal!A74:G172,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,C_personal!A75:G173,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,C_personal!A76:G174,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,C_personal!A77:G175,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,C_personal!A78:G176,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,C_personal!A79:G177,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,C_personal!A80:G178,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,C_personal!A81:G179,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,C_personal!A82:G180,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,C_personal!A83:G181,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,C_personal!A84:G182,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,C_personal!A85:G183,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,C_personal!A86:G184,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,C_personal!A87:G185,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,C_personal!A88:G186,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,C_personal!A89:G187,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,C_personal!A90:G188,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,C_personal!A91:G189,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,C_personal!A92:G190,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,C_personal!A93:G191,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,C_personal!A94:G192,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,C_personal!A95:G193,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,C_personal!A96:G194,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,C_personal!A97:G195,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,C_personal!A98:G196,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,C_personal!A99:G197,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,C_personal!A100:G198,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,C_personal!A101:G199,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,C_personal!A102:G200,4),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,C_personal!A103:G201,4),"")</f>
-        <v/>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/14.Responsables.xlsx
+++ b/src/assets/files/14.Responsables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgutierrez\Documents\proyectos\angular\demos\trabajo-social-adt\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867FEF23-DB5C-4DA6-8BB2-118FBEC2F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545969FE-7AC8-49A5-8AE5-F3991DD4CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
+    <workbookView xWindow="780" yWindow="864" windowWidth="21756" windowHeight="11304" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="C_personal" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>PRIMER APELLIDO</t>
-  </si>
-  <si>
-    <t>SEGUNDO APELLIDO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -57,18 +51,6 @@
     <t>PUESTO</t>
   </si>
   <si>
-    <t>NOMBRE COMPLETO</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
-    <t>Clave turno</t>
-  </si>
-  <si>
     <t>Descripción de turno</t>
   </si>
   <si>
@@ -90,44 +72,212 @@
     <t>TURNO</t>
   </si>
   <si>
+    <t>Trab_Social_05</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
     <t xml:space="preserve">Administrador </t>
   </si>
   <si>
     <t>Jefe_trabajo_social</t>
   </si>
   <si>
-    <t>Carlos Salas Perez</t>
-  </si>
-  <si>
-    <t>cperez</t>
-  </si>
-  <si>
-    <t>Turno</t>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>De la Rosa</t>
+  </si>
+  <si>
+    <t>Del Corral</t>
+  </si>
+  <si>
+    <t>Arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendoza </t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Posada</t>
+  </si>
+  <si>
+    <t>Casas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vazquez </t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laverde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del Río </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Avalos </t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>Pila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez </t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Susana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Patricia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa </t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Rebeca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efraín </t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>Subjefe</t>
+  </si>
+  <si>
+    <t>Auxiliar</t>
+  </si>
+  <si>
+    <t>Asistente</t>
+  </si>
+  <si>
+    <t>Trabajador social</t>
+  </si>
+  <si>
+    <t>Subjefe_trabajo_social</t>
+  </si>
+  <si>
+    <t>Auxiliar_de_trabajo_social</t>
+  </si>
+  <si>
+    <t>Asistente_trabajador_social</t>
+  </si>
+  <si>
+    <t>trabajador_social</t>
+  </si>
+  <si>
+    <t>PRIMER_APELLIDO</t>
+  </si>
+  <si>
+    <t>SEGUNDO_APELLIDO</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ESCUELA_PROCEDENCIA</t>
+  </si>
+  <si>
+    <t>susana.sanchezr@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>Nocturno</t>
+  </si>
+  <si>
+    <t>carlos.garcia@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>Vespertino</t>
+  </si>
+  <si>
+    <t>valentina.delarosa@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>juanf.delcorral@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>sofia.arango@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>monica.mendoza@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>teresa.mejia@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>oscar.leon@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>Horario Mixto</t>
+  </si>
+  <si>
+    <t>javier.posada@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>rebeca.casas@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>efrain.vazquez@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>victor.delarosa@imss.gob.mx</t>
+  </si>
+  <si>
+    <t>CLAVE ESPECIALIDAD</t>
   </si>
   <si>
     <t>SERVICIO/ESPECIALIDAD</t>
   </si>
   <si>
-    <t>Servicios de Enlace</t>
-  </si>
-  <si>
-    <t>Trab_Social_02</t>
+    <t>Trabajo Social</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +290,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,27 +317,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,498 +643,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15ADAF9-7C86-433C-9A1B-0D29FD25DDFD}">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>912083456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>975432729</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>123453894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>864263789</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>534283945</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>834417268</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>723498109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>987938743</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>872345903</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>876234879</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>123257965</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>987654321</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>987654321</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G46" t="str">
-        <f t="shared" ref="G46:G103" si="0">CONCATENATE(A46," ",B46," ",C46)</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G67" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G68" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G69" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G70" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G71" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G72" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G73" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G74" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G75" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G76" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G77" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G78" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G79" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G80" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G81" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G82" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G83" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G84" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G85" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G86" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G87" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G88" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G89" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G90" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G91" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G92" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G93" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G94" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G95" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G96" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G97" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G98" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G99" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G100" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G101" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G102" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G103" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>99091173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{7E610357-3E40-4E3E-93DF-8FC05105ED82}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{400E0ADA-279D-4009-95C6-9596529EFD81}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{49FA77A8-5F55-405B-B821-92F180A1E0A7}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{E0D2CBE7-0BC2-4AD3-8681-8239881ADD11}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{24BFE27A-BB6E-4939-B7A7-BE19081BBAAC}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{698905C7-D98B-44F3-803A-531F97CB0E5F}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{3113D1D6-43CD-445D-9F7D-E33638546A25}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{F120460B-A8A2-4725-A111-7E99F154BEB5}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{755BFC08-95C8-4332-87B4-01AFF96C5DFF}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{10D4AED7-2B63-43D6-B655-F108D13C4D59}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{2BA9D05C-A5B2-4DCC-9CF1-D42E6665DEBD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107F8805-762B-4FFF-AF1B-562D932DDC5B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24" s="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -996,67 +1073,60 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>912083456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>987654321</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
+      <c r="E2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{824E13BB-2231-4D09-8193-1DF00326812E}">
-          <x14:formula1>
-            <xm:f>C_personal!$G$5:$G$103</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B100</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77554C3C-CCA4-4D67-AA3F-3A047D4BCC4E}">
           <x14:formula1>
-            <xm:f>AA_TURNOS!$B$5:$B$10</xm:f>
+            <xm:f>AA_TURNOS!$A$5:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D100 D2</xm:sqref>
+          <xm:sqref>C4:C100 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1065,12 +1135,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,15 +1255,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA25A5CE-F7DC-4013-ADFC-9FDEC7F55BC7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1218,10 +1289,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA25A5CE-F7DC-4013-ADFC-9FDEC7F55BC7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/assets/files/14.Responsables.xlsx
+++ b/src/assets/files/14.Responsables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avictoria\Documents\Proyectos\AgendaDigital\ARCHIVOS PRUEBA\oficiales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545969FE-7AC8-49A5-8AE5-F3991DD4CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E99AC-D7C3-41E7-A802-444256499A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="864" windowWidth="21756" windowHeight="11304" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
+    <workbookView xWindow="-16183" yWindow="-2897" windowWidth="13423" windowHeight="5091" activeTab="2" xr2:uid="{81DE2BF2-5820-420D-8D45-6D412EA3A9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="C_personal" sheetId="1" r:id="rId1"/>
@@ -66,15 +66,9 @@
     <t>MATRICULA</t>
   </si>
   <si>
-    <t>UBICACIÓN</t>
-  </si>
-  <si>
     <t>TURNO</t>
   </si>
   <si>
-    <t>Trab_Social_05</t>
-  </si>
-  <si>
     <t>Carlos</t>
   </si>
   <si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>Trabajo Social</t>
+  </si>
+  <si>
+    <t>DESCRIPCION COMPLETA DE UBICACIÓN</t>
+  </si>
+  <si>
+    <t>Trabajo_Social_01</t>
   </si>
 </sst>
 </file>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -678,325 +678,325 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>912083456</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>975432729</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>123453894</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>864263789</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>534283945</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>834417268</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>723498109</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>987938743</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>872345903</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>876234879</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>123257965</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>99091173</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,16 +1087,16 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1104,7 +1104,7 @@
         <v>912083456</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1141,6 +1141,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -1254,15 +1263,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA25A5CE-F7DC-4013-ADFC-9FDEC7F55BC7}">
   <ds:schemaRefs>
@@ -1273,6 +1273,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C479CB17-957D-44FB-B5DB-D83F812D9445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1286,12 +1294,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429D3CF7-3DE4-46DF-9720-539F5F1E4406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>